--- a/软件工程/浓缩版.xlsx
+++ b/软件工程/浓缩版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\24-25-2-IT-Exam-Resources\软件工程\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021E30AA-D685-47AA-9600-3C4ED39414A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DBE9B-4743-4461-A9B8-33A4F2ADBC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -208,9 +208,6 @@
     <t>软件维护时,对测试阶段未发现的错误进行测试、诊断、定位、纠错,直至修改的回归测试过程称为( )。</t>
   </si>
   <si>
-    <t>回归测试</t>
-  </si>
-  <si>
     <t>黑盒测试是根据程序的什么来设计测试用例的方法。</t>
   </si>
   <si>
@@ -632,6 +629,10 @@
   </si>
   <si>
     <t>A.开发人员 | B.项目经理 | C.用户 | D.管理人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正性维护</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85:XFD85"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1003,520 +1004,520 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
         <v>168</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
         <v>99</v>
       </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>93</v>
       </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
         <v>175</v>
       </c>
-      <c r="C32" t="s">
-        <v>176</v>
-      </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -1538,10 +1539,10 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
         <v>148</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -1549,10 +1550,10 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
         <v>178</v>
-      </c>
-      <c r="C40" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1582,10 +1583,10 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
         <v>142</v>
-      </c>
-      <c r="C43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -1604,10 +1605,10 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
         <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1615,10 +1616,10 @@
         <v>10</v>
       </c>
       <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -1648,10 +1649,10 @@
         <v>10</v>
       </c>
       <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
         <v>180</v>
-      </c>
-      <c r="C49" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1670,10 +1671,10 @@
         <v>10</v>
       </c>
       <c r="B51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
         <v>182</v>
-      </c>
-      <c r="C51" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -1681,10 +1682,10 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
         <v>90</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -1692,10 +1693,10 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" t="s">
         <v>164</v>
-      </c>
-      <c r="C53" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -1714,10 +1715,10 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
         <v>152</v>
-      </c>
-      <c r="C55" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -1725,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -1736,10 +1737,10 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -1747,10 +1748,10 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" t="s">
         <v>162</v>
-      </c>
-      <c r="C58" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -1769,10 +1770,10 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
         <v>137</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -1791,10 +1792,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" t="s">
         <v>166</v>
-      </c>
-      <c r="C62" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -1813,10 +1814,10 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
         <v>113</v>
-      </c>
-      <c r="C64" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -1827,7 +1828,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -1857,10 +1858,10 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
         <v>184</v>
-      </c>
-      <c r="C68" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -1868,10 +1869,10 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -1879,10 +1880,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
         <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -1901,10 +1902,10 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
         <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -1912,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -1923,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
         <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -1934,10 +1935,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -1956,10 +1957,10 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -1967,10 +1968,10 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
         <v>125</v>
-      </c>
-      <c r="C78" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -1978,10 +1979,10 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
+        <v>170</v>
+      </c>
+      <c r="C79" t="s">
         <v>171</v>
-      </c>
-      <c r="C79" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -1989,10 +1990,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
         <v>74</v>
-      </c>
-      <c r="C80" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -2000,10 +2001,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
         <v>160</v>
-      </c>
-      <c r="C81" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -2011,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
         <v>158</v>
-      </c>
-      <c r="C82" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
@@ -2025,13 +2026,13 @@
         <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D83" t="s">
         <v>52</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -2039,13 +2040,13 @@
         <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -2053,13 +2054,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" t="s">
         <v>195</v>
-      </c>
-      <c r="C85" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -2067,10 +2068,10 @@
         <v>4</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D86" t="s">
         <v>50</v>
@@ -2081,13 +2082,13 @@
         <v>4</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
         <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -2137,13 +2138,13 @@
         <v>4</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
       </c>
       <c r="D91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -2151,13 +2152,13 @@
         <v>4</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -2193,13 +2194,13 @@
         <v>4</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -2224,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2235,13 +2236,13 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
@@ -2249,13 +2250,13 @@
         <v>4</v>
       </c>
       <c r="B99" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
         <v>48</v>
       </c>
       <c r="D99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -2277,13 +2278,13 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>48</v>
       </c>
       <c r="D101" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
@@ -2305,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="B103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
       </c>
       <c r="D103" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -2319,13 +2320,13 @@
         <v>4</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
       </c>
       <c r="D104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -2333,13 +2334,13 @@
         <v>4</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
       </c>
       <c r="D105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -2347,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C106" t="s">
         <v>48</v>
       </c>
       <c r="D106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -2364,7 +2365,7 @@
         <v>33</v>
       </c>
       <c r="C107" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D107" t="s">
         <v>34</v>
